--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2927710.175690292</v>
+        <v>2923377.690869602</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10087461.63830381</v>
+        <v>10087461.6383038</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283168</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>283.2502426857016</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -715,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>156.5739613985149</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>99.90991062876937</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>317.3486277130103</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>8.860579711131018</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>266.6210949690529</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.2137407186092</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1186,19 +1186,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>62.20774939355836</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>61.22388539774963</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>139.1296354848078</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>134.4555615353795</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>11.77415159214003</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934424</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1897,10 +1897,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>87.82057320600265</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.594095449515125</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>33.82891891787487</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U27" t="n">
         <v>225.7478006422472</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>15.76045942439385</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U30" t="n">
         <v>225.7478006422472</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.31547498186877</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695507</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U33" t="n">
         <v>225.7478006422472</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>112.7606860320026</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695507</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U36" t="n">
         <v>225.7478006422472</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>75.00788511618509</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>32.57570591153986</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695507</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>59.44001103519866</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695507</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.1343006978499</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>203.896644668077</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1304.217875522719</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>918.4296229244749</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>911.4841221752714</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>493.5203140734583</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.2708856551153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>184.2708856551153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2708856551153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551153</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2708856551153</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2708856551153</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1299.526533804879</v>
+        <v>1196.778435292677</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>827.8159183522657</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>469.5502197455152</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>83.76196714727098</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>76.8164663980675</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>62.89306233665841</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.08070321196</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4749,25 +4749,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
         <v>1345.301239238533</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4834,22 +4834,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2458.135492833849</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2458.135492833849</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="V8" t="n">
-        <v>2458.135492833849</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="W8" t="n">
-        <v>2105.366837563734</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.901079302655</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y8" t="n">
-        <v>1731.901079302655</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.6044479702274</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>359.6044479702274</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>587.5939988682447</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>587.5939988682447</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>587.5939988682447</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>359.6044479702274</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.6044479702274</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991042</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2368.02429741636</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2148.422832439301</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1859.347605783499</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1604.663117577612</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1315.245947540652</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.256396642634</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.4638174991042</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5518,13 +5518,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
@@ -5545,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>4093.4488110627</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>3804.031641025739</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3047.140839595365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2878.204656667458</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2878.204656667458</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2730.291563085065</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.789304425605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>127.9872882175424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>127.9872882175424</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6293,10 +6293,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
         <v>93.81666304797187</v>
@@ -6305,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756271</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756271</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>738.788911791387</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>738.788911791387</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345995</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1918.296605585283</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804958</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>615.6449305525889</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402531</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>317.61519755786</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.61519755786</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.61519755786</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107355</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.61155333238</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014773</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084668</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2715.159942084668</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>3312.538429711221</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>3940.136393265829</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>4492.046123505117</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200.825397924054</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.889214996147</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583811</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001418</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503507</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4663.241763528019</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4663.241763528019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4443.64029855096</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4154.565071895158</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3899.880583689272</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3610.463413652311</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3382.473862754293</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3382.473862754293</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.61155333238</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014773</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6767,10 +6767,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
         <v>93.81666304797187</v>
@@ -6779,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637318</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890285</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444893</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684182</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081855</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153949</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741613</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.57131315922</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661309</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4107.431466468233</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3852.746978262346</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3563.329808225385</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3563.329808225385</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3342.537229081855</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168617</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7004,10 +7004,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
         <v>93.81666304797187</v>
@@ -7016,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756271</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468485</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718679</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998421</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998421</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237709</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732778</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107661</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3336.216066251168</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C37" t="n">
-        <v>3167.279883323261</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>3017.163243910926</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2869.250150328533</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2722.360202830622</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2555.164103545502</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2413.4522723877</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328842</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122955</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3966.646661122955</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3738.657110224938</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>3517.864531081408</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,64 +7162,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014773</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,10 +7241,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
         <v>93.81666304797187</v>
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756271</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468485</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962608</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589162</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446604</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2940.578503903501</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>2771.642320975594</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2621.525681563259</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2621.525681563259</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218387</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018136</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812249</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3571.009098775288</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3343.019547877271</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3122.226968733741</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084668</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300428</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926981</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>4435.461999481588</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>4435.461999481588</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.6143379232835</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232835</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232835</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408904</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429801</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487572</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831769</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625883</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588922</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.896109690904</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473744</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3028.451182298828</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>2859.514999370921</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>2709.398359958586</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.19996817779</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>3249.243761442358</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>3028.451182298828</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-8.988773068867788e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-8.988773068867788e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-9.559087313174115e-12</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-9.445400475452499e-12</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-9.38011011638768e-12</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.148237060988322e-11</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.113069270183222e-11</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-9.738064509960551e-12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.6820817884485</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>169.2521344095046</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>72.1196935303856</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>164.3170701178254</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>143.8269525734161</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>106.465793928349</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012147</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>201.6449909028944</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.0597717282527</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>173.4237883572416</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.257951202380312</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.0089474405549</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>85.98103698773258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.69767948408739</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>21.81301072096014</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.212468342</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380331</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380333</v>
-      </c>
       <c r="E2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="G2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
-      </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442554</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.777757709</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925948</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670419</v>
+        <v>5067.592601670396</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="J4" t="n">
-        <v>5067.592601670278</v>
-      </c>
       <c r="K4" t="n">
-        <v>5067.592601670279</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.59260167028</v>
+        <v>5067.592601670418</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670278</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670278</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670276</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670418</v>
       </c>
     </row>
     <row r="5">
@@ -26493,22 +26493,22 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196532.0030676519</v>
+        <v>-196532.0030676521</v>
       </c>
       <c r="C6" t="n">
-        <v>393435.8761468924</v>
+        <v>393435.8761468922</v>
       </c>
       <c r="D6" t="n">
-        <v>393435.8761468923</v>
+        <v>393435.8761468926</v>
       </c>
       <c r="E6" t="n">
-        <v>-384666.9554390315</v>
+        <v>-385014.3346933881</v>
       </c>
       <c r="F6" t="n">
-        <v>559705.8223186772</v>
+        <v>559358.4430643204</v>
       </c>
       <c r="G6" t="n">
-        <v>559705.8223186774</v>
+        <v>559358.4430643208</v>
       </c>
       <c r="H6" t="n">
-        <v>559705.8223186777</v>
+        <v>559358.4430643205</v>
       </c>
       <c r="I6" t="n">
-        <v>559705.8223186777</v>
+        <v>559358.4430643204</v>
       </c>
       <c r="J6" t="n">
-        <v>383282.6031260829</v>
+        <v>382935.2238717276</v>
       </c>
       <c r="K6" t="n">
-        <v>559705.8223186777</v>
+        <v>559358.4430643207</v>
       </c>
       <c r="L6" t="n">
-        <v>559705.8223186777</v>
+        <v>559358.4430643207</v>
       </c>
       <c r="M6" t="n">
-        <v>435497.3116106191</v>
+        <v>435149.9323562621</v>
       </c>
       <c r="N6" t="n">
-        <v>559705.8223186776</v>
+        <v>559358.4430643209</v>
       </c>
       <c r="O6" t="n">
-        <v>559705.8223186776</v>
+        <v>559358.4430643207</v>
       </c>
       <c r="P6" t="n">
-        <v>559705.8223186791</v>
+        <v>559358.4430643209</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26761,22 +26761,22 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26980,16 +26980,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.684004009015756e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>40.67253007865554</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>213.1571392799542</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>16.39642322652793</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>118.6747427233254</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.38521395047024</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0621930532261</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>19.66077927292486</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.9239026052188</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>154.2405709640994</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>190.0002821105397</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>147.1522387571699</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31837,22 +31837,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>467.7715423565655</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31861,10 +31861,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32074,16 +32074,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>398.1179220955532</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,22 +32311,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>395.1848490935915</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32338,7 +32338,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673334</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M24" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.995851442076</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437255</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>539.5330155967632</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485297</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422594</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437255</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946094</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162576</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292903</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659455</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521105</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071799</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437255</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704851</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121574</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162576</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292903</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659455</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521105</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422594</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>272.7569329364595</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437255</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485297</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418564</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121574</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162576</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292903</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659455</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521105</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>230.1272937575171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437255</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485297</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121574</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162576</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292903</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659455</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521105</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3072281639485</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485297</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121574</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>325.6375084345472</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35509,10 +35509,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>259.5635423156791</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
         <v>632.079992146269</v>
@@ -35895,7 +35895,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>253.0508151715732</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35986,7 +35986,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531504</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M24" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193419</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754093</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992811</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>405.558608182433</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625082</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146259</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243177</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496679004</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992811</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802792</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367782</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146259</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902966</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243177</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674343</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238466</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992811</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561548</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096355</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367782</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462703</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902966</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193419</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243177</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496679004</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>134.2025531565853</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992811</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071406</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625082</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789242</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096355</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367782</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462703</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902851</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243177</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674343</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>98.78558167418379</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992811</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625082</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096355</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367782</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462703</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902966</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243061</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674343</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>22.33282074961828</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625082</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096355</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2923377.690869602</v>
+        <v>2925138.221172387</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>236.3705599263824</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>156.5739613985149</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.90991062876937</v>
+        <v>200.7509191265924</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>12.02120058606576</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>8.860579711131018</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.2137407186092</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>179.2195606391664</v>
       </c>
     </row>
     <row r="8">
@@ -1186,10 +1186,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>61.22388539774963</v>
       </c>
       <c r="U8" t="n">
-        <v>61.22388539774963</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733143</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.9649966249136</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>180.0179497934424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.57570591153986</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>74.53917159609172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1602.311532020473</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1602.311532020473</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>1405.321187657107</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.321187657107</v>
+        <v>1971.274048960885</v>
       </c>
     </row>
     <row r="3">
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>495.9333588715792</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1196.778435292677</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C5" t="n">
-        <v>827.8159183522657</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D5" t="n">
-        <v>469.5502197455152</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="E5" t="n">
-        <v>83.76196714727098</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="F5" t="n">
-        <v>76.8164663980675</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>62.89306233665841</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4597,22 +4597,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1583.378275356799</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1583.378275356799</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="8">
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,7 +4834,7 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="U8" t="n">
         <v>2459.129294849817</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4947,19 +4947,19 @@
         <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,19 +4968,19 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
         <v>713.4553696737762</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>481.447947124485</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>481.447947124485</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>314.251847839365</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5603,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,22 +6308,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356194</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7262,13 +7262,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.409273127515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6212754172146</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>3.329716221310264</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>72.1196935303856</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>24.63391537253449</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.0089474405549</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>211.9838267404993</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.2124683422</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.2124683422</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442554</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442552</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.777757709</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670396</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670418</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
@@ -26456,10 +26456,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670418</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196532.0030676521</v>
+        <v>-196532.003067652</v>
       </c>
       <c r="C6" t="n">
-        <v>393435.8761468922</v>
+        <v>393435.8761468926</v>
       </c>
       <c r="D6" t="n">
         <v>393435.8761468926</v>
       </c>
       <c r="E6" t="n">
-        <v>-385014.3346933881</v>
+        <v>-384701.6933644671</v>
       </c>
       <c r="F6" t="n">
-        <v>559358.4430643204</v>
+        <v>559671.0843932418</v>
       </c>
       <c r="G6" t="n">
-        <v>559358.4430643208</v>
+        <v>559671.0843932414</v>
       </c>
       <c r="H6" t="n">
-        <v>559358.4430643205</v>
+        <v>559671.0843932418</v>
       </c>
       <c r="I6" t="n">
-        <v>559358.4430643204</v>
+        <v>559671.084393242</v>
       </c>
       <c r="J6" t="n">
-        <v>382935.2238717276</v>
+        <v>383247.8652006489</v>
       </c>
       <c r="K6" t="n">
-        <v>559358.4430643207</v>
+        <v>559671.0843932417</v>
       </c>
       <c r="L6" t="n">
-        <v>559358.4430643207</v>
+        <v>559671.0843932418</v>
       </c>
       <c r="M6" t="n">
-        <v>435149.9323562621</v>
+        <v>435462.5736851831</v>
       </c>
       <c r="N6" t="n">
-        <v>559358.4430643209</v>
+        <v>559671.0843932418</v>
       </c>
       <c r="O6" t="n">
-        <v>559358.4430643207</v>
+        <v>559671.084393242</v>
       </c>
       <c r="P6" t="n">
-        <v>559358.4430643209</v>
+        <v>559671.0843932423</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245873</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>145.5598101458794</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>213.1571392799542</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>118.6747427233254</v>
+        <v>17.83373422550238</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>394.8548451556457</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0621930532261</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>118.9239026052188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>39.36509271292834</v>
       </c>
     </row>
     <row r="8">
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>155.2244349599082</v>
       </c>
       <c r="U8" t="n">
-        <v>190.0002821105397</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758288</v>
+        <v>14.59587156758265</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,10 +33028,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
